--- a/static/upload/waste item master list.xlsx
+++ b/static/upload/waste item master list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\django_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\django_project\project_smartfactory\static\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>waste_item_code</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Pressure sensitive adhesive(Shield)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover layer </t>
-  </si>
-  <si>
     <t>W01510001</t>
   </si>
   <si>
@@ -99,6 +96,27 @@
   </si>
   <si>
     <t xml:space="preserve">เบสฟิลม์ เพทฟิล์ม </t>
+  </si>
+  <si>
+    <t>Cover layer /1</t>
+  </si>
+  <si>
+    <t>waste_unit</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>W01510007</t>
+  </si>
+  <si>
+    <t>TEST 1</t>
+  </si>
+  <si>
+    <t>เทส 1</t>
+  </si>
+  <si>
+    <t>g0105</t>
   </si>
 </sst>
 </file>
@@ -417,21 +435,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,97 +461,135 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
